--- a/ibrahimdulger/evidence.xlsx
+++ b/ibrahimdulger/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRehberD\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/ibo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71DFB66C-2C16-4DB1-930E-7306467F228F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +125,48 @@
   </si>
   <si>
     <t>omniflix14pxla3c0umrtfg6l86f9hfusjj63rsd3g5kant</t>
+  </si>
+  <si>
+    <t>823BF255BDE48391DFA8F20040AB2BFBF86365BE84530CE50FFEAD3C4604BD69</t>
+  </si>
+  <si>
+    <t>yesayNFTs</t>
+  </si>
+  <si>
+    <t>647F4AC04BC045E26113EA84A77F032431B8795D227DC729CA42F3E4F282044F</t>
+  </si>
+  <si>
+    <t>ibo001</t>
+  </si>
+  <si>
+    <t>7AF6725CA17C4A97BD9F9C226E3749DC11CF671D66215699B8F22E3BD9CF2F7F</t>
+  </si>
+  <si>
+    <t>ibo002</t>
+  </si>
+  <si>
+    <t>7F82B3D747431E26E36057833069F700A7255C5FECB76A54FB82AEAFA3DB6A8F</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>D6482B95E11CA1775B81E4BE2BB95189382E24287F7957BBB6E52D84279BAC72</t>
+  </si>
+  <si>
+    <t>ibc/08854A4494256C0CC3640BA625CB7D14BFE909E513BA07CED485189803719569</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>juno1my4435azjahftt6azh9z9pcc5jt6n76j4f3snypk0mk0guyr6vfsu4fmvx</t>
+  </si>
+  <si>
+    <t>6E27C99E680EFDBA318AA3A7390E18580D70D27172225ECA00628D1E0F876774</t>
+  </si>
+  <si>
+    <t>D24E24528F4BD606F2752E07204151472C4CD85086B46A439C8E1A8F532D2051</t>
   </si>
 </sst>
 </file>
@@ -216,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -224,8 +248,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -539,72 +561,72 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -621,13 +643,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -635,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -657,13 +679,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -671,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -693,13 +715,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -729,13 +751,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -743,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -765,13 +787,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -787,17 +809,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,13 +833,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -835,17 +855,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,13 +879,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -883,17 +901,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -909,13 +925,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -931,17 +947,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,13 +971,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -979,17 +993,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1005,13 +1017,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1027,17 +1039,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,14 +1061,16 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,12 +1078,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1088,13 +1100,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1110,17 +1122,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1136,13 +1146,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1158,17 +1168,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1184,22 +1192,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1218,22 +1226,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1252,22 +1260,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1286,22 +1294,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1316,17 +1324,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,15 +1347,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1360,16 +1381,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,18 +1406,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1409,16 +1432,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,18 +1457,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1458,16 +1483,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,18 +1508,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1507,17 +1534,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,18 +1560,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1559,13 +1588,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1595,13 +1624,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1609,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/ibrahimdulger/evidence.xlsx
+++ b/ibrahimdulger/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/ibo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71DFB66C-2C16-4DB1-930E-7306467F228F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70936B9F-68D2-411D-9B7A-62ABF830A1D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="787" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="787" firstSheet="4" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -167,6 +152,159 @@
   </si>
   <si>
     <t>D24E24528F4BD606F2752E07204151472C4CD85086B46A439C8E1A8F532D2051</t>
+  </si>
+  <si>
+    <t>ibo0007</t>
+  </si>
+  <si>
+    <t>ibc/EF67CD629C9C79F49E8935DFA81F7F2AB70D7362E4AD757CAD26DB8D7861E880</t>
+  </si>
+  <si>
+    <t>ibc/A27047BFF3E09C3182C1033770DDDA07899CD7D1FB14266AA4E3F75B24A5DF08</t>
+  </si>
+  <si>
+    <t>ibo0008</t>
+  </si>
+  <si>
+    <t>ibc/2B824DA5A4BAC4DF00D835A59FF187BADE6C74D34DB59AB9F0EB825695743B9E</t>
+  </si>
+  <si>
+    <t>ibo0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibc/17535B624817ACD45164A269806F7C9F6356BCA6FA571D99E244BCBA098EB067</t>
+  </si>
+  <si>
+    <t>ibo0010</t>
+  </si>
+  <si>
+    <t>ibc/3F08E4C1FEE78BDAFECABB7D15D2EBEA4EA34CC8A9FF9319E1A8E259F3BA9F47</t>
+  </si>
+  <si>
+    <t>ibo0011</t>
+  </si>
+  <si>
+    <t>ibc/A520134749AA90369677B25C84381301AD7BE1F1CFB92F4B9B3AA4F232831879</t>
+  </si>
+  <si>
+    <t>ibo0012</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>4908DD31644D2285A0D75954DCF38928977278A5952F0A5398E9004119D17202</t>
+  </si>
+  <si>
+    <t>E8AE370D76318C43B2825A4D5C0D381E3EC8F0913E56111C3281B9FD40A0B698</t>
+  </si>
+  <si>
+    <t>7C75C81B34DF6587915B7D7B584F22A3E90CC4BDAB876404480DD75254642208</t>
+  </si>
+  <si>
+    <t>B2D416E359CDEEB0CE234CC8B37E36E1636307502E15D5CD200FA966DA6A9C99</t>
+  </si>
+  <si>
+    <t>FA446A374F266362DA2E0CF72915BEBF83524F8011688C4AC8AFCA950188A81A</t>
+  </si>
+  <si>
+    <t>19F0F6B85AC369029AA11907B84B9AF0A62485ED26AA3DAA7C76253A55650F39</t>
+  </si>
+  <si>
+    <t>75F3A14CB1A1FD23CD62D762B8BCC81D33398CA70C78083959F66AD47409C726</t>
+  </si>
+  <si>
+    <t>B9C929E264BB18B80609F291733D0E6EFD4B55C571D1954BC335D97706069ADD</t>
+  </si>
+  <si>
+    <t>0E39B75ECFB96531DFCC225FF99BD74647843339400DE78869E45D59A3B83C0D</t>
+  </si>
+  <si>
+    <t>9C20F521A0636CEB53A332A00E4CA6BC2188ED7FC9CE3C56C313D2CE3227EF16</t>
+  </si>
+  <si>
+    <t>F32199441DC1613E6CDE16DF31F2AF7B0563A1777E89884B3C61934B0E35EEC9</t>
+  </si>
+  <si>
+    <t>6131F7B6DC28D5CE80F760933C392BC40FB8C3BC1DF5817D38973ACC20653A29</t>
+  </si>
+  <si>
+    <t>8B85FAB643DB6DFF86959A782DA3D6C90963785900B49F96D2B84F5C19FC2E23</t>
+  </si>
+  <si>
+    <t>083C4FCB6EA3189BC94ADB872BF8E82087FD87A554344F440BD1B6C3607C1FA4</t>
+  </si>
+  <si>
+    <t>D05D3D4B72FF7607646DA114EE8F08EE6056474EFE7A5DA06B99F357B9CF41A1</t>
+  </si>
+  <si>
+    <t>73833B89B0EE482847277E64915E00C5128C1198E41CE9DC765F6BE13349CF66</t>
+  </si>
+  <si>
+    <t>40B165F4BD6150848D76CE216604328E5E7509030F7C65D02EB6ED714C844C03</t>
+  </si>
+  <si>
+    <t>36E8641FD1F932ECF18F1D3BA6750655BA429E1D34949FCDB15BF1042ED57393</t>
+  </si>
+  <si>
+    <t>0DE2F5F04D44E0C06D9C05784DA8A91B7233357BBDA34A2AD57E76B5BA7AC82A</t>
+  </si>
+  <si>
+    <t>369E41A42EF281E1DF425E52CC20D803FF0F770EEC7245171349D59D9675B7EC</t>
+  </si>
+  <si>
+    <t>F564BBFE2202BC2D4F5A2726BF2FE0E4DFDFD864320D8E0308A2526EE1EED990</t>
+  </si>
+  <si>
+    <t>6533947EFB27E7A4F840624D2E6304720358B542F2984FE37C3815878132B357</t>
+  </si>
+  <si>
+    <t>6B08CAECF4DDFA8BC719FDAB9D6010D5D704C4DFEED69C81A34D91C48822F03E</t>
+  </si>
+  <si>
+    <t>27F84F47EC2F6DBC38DF4F3C887114732ED7082C1DB8EDB941AD728CC2CC2B44</t>
+  </si>
+  <si>
+    <t>C4947A520D44EEB3137831E37E24CAA345F609354887B5944805B8E11F305FF2</t>
+  </si>
+  <si>
+    <t>94590F50954E036DACCAEABEF7960943BDC7429CD79E590B73F2E731C980B743</t>
+  </si>
+  <si>
+    <t>444CA5000F3AF397FFC81A6028A407261693C3FA7B26DAC6376798D76C41849F</t>
+  </si>
+  <si>
+    <t>0A80862EA843A0C46F4A51D2F966ED541F5021CC4E3D76A36B029D3AB7C6090D</t>
+  </si>
+  <si>
+    <t>6CAAAE72579B6F918D126B03DAA04DBD1E037DF69FCADD4920AE058344726CA5</t>
+  </si>
+  <si>
+    <t>F6082FC6AC6301A75DD012165AB09F5D3A7E3A2B4FEFDFE012DB2670D62F8782</t>
+  </si>
+  <si>
+    <t>BB12BF615815FBCB338AE0EFE12278A7AABD45E15890F92383D221D9055647E7</t>
+  </si>
+  <si>
+    <t>3E0C8B28AA7A8CFDA40F734DBAAD47B7E44285B24067D97DD64CBE7A29510074</t>
+  </si>
+  <si>
+    <t>A1E5B11F2067CE806CA1B6A496B4EB788A7F3FD7FB844BDB2775A8E79EA14812</t>
+  </si>
+  <si>
+    <t>D31D8FBB3E94466469CEB32DC6CADDA22005A9B557BD53E2CC7AEA9B22A9E67A</t>
+  </si>
+  <si>
+    <t>6A6A842D7D660E705580BEBE31E00A317A5075D3582193638D7FF514E2481DF7</t>
+  </si>
+  <si>
+    <t>ADDF884E41912A3B71E7A4207D695CB4DD75FEAA543E91BA509238F89861C4B8</t>
   </si>
 </sst>
 </file>
@@ -240,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +390,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -579,54 +723,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +785,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,18 +797,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +823,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -687,18 +835,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +861,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,18 +873,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +899,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -759,18 +911,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -783,9 +935,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -803,20 +957,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -829,9 +997,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -849,20 +1019,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -875,9 +1059,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,20 +1081,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -921,9 +1121,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,20 +1143,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -967,9 +1183,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,35 +1205,150 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1033,72 +1366,67 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,66 +1444,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1341,32 +1653,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1397,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1408,16 +1720,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1448,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1459,16 +1771,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1510,16 +1822,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1846,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -1551,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1562,31 +1874,71 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1596,54 +1948,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ibrahimdulger/evidence.xlsx
+++ b/ibrahimdulger/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/ibo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70936B9F-68D2-411D-9B7A-62ABF830A1D9}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{736F99FB-B2E4-4194-9A54-C02EF592EB64}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="787" firstSheet="4" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="787" firstSheet="5" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
   <si>
@@ -305,6 +302,27 @@
   </si>
   <si>
     <t>ADDF884E41912A3B71E7A4207D695CB4DD75FEAA543E91BA509238F89861C4B8</t>
+  </si>
+  <si>
+    <t>64097FE0AEA52685F3EF18141744A51963C62EF10495DDDB1D527FBECA01F6D1</t>
+  </si>
+  <si>
+    <t>7E4317A58E957D0F2525B7C83732855BE0EA541333555DE30CEABB89C872F564</t>
+  </si>
+  <si>
+    <t>F9550CCA528891934E9D0AC725BA49481BA5022F146ADB8B3F3657FD18BE61E6</t>
+  </si>
+  <si>
+    <t>F9E9C3521EEFA15A46D0145556AF2444C19AED0E69B76673A3C6523D0DDDF70D</t>
+  </si>
+  <si>
+    <t>EBDF1B9F14A6ABD96A904772640933F0452C27AEF3B98AE6DEC402F2531385A2</t>
+  </si>
+  <si>
+    <t>7E091923B458ECCF417FA4E1C4D0B99AEAB0EA20FF43E88FB2F53E2FEDEDFFFA</t>
+  </si>
+  <si>
+    <t>EBDCA8ECF845768873D290A2FC76B76CD9FFE6ED7BD2306AD10552FB47738D09</t>
   </si>
 </sst>
 </file>
@@ -378,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -390,9 +408,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,54 +738,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -797,18 +812,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -835,18 +850,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -873,18 +888,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -911,34 +926,96 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,20 +1029,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -973,15 +1050,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -992,15 +1069,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,55 +1091,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,55 +1215,154 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
+      <c r="A5" t="s">
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,55 +1376,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,20 +1454,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>68</v>
+      <c r="A3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1221,192 +1475,31 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -1417,84 +1510,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
@@ -1502,7 +1517,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1516,12 +1533,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1553,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1549,13 +1568,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1589,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1584,12 +1605,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1625,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1617,13 +1640,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1653,32 +1676,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1709,27 +1732,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1760,27 +1783,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1811,27 +1834,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1863,27 +1886,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1910,18 +1933,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1948,19 +1971,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ibrahimdulger/evidence.xlsx
+++ b/ibrahimdulger/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/778f0630af30ae08/Masaüstü/nodes/cosmos/GOn/ibo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{736F99FB-B2E4-4194-9A54-C02EF592EB64}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{89574DF8-6949-47CA-AB0D-00C5A920A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{047389C3-A98B-49E8-A563-17229118EB46}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="787" firstSheet="5" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2835" windowWidth="21600" windowHeight="11295" tabRatio="787" firstSheet="6" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
@@ -323,6 +324,12 @@
   </si>
   <si>
     <t>EBDCA8ECF845768873D290A2FC76B76CD9FFE6ED7BD2306AD10552FB47738D09</t>
+  </si>
+  <si>
+    <t>FDE9D5FA7DD7E6A9A49F16AC4A41535C91F8452515314310FB2C3763DFE7840F</t>
+  </si>
+  <si>
+    <t>3893648B651685541E03C234F9BBFC9546AE0C21F265900FF5DE8795B4771E2D</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1632,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1647,6 +1654,42 @@
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096EC65F-9B95-4775-A55C-F5CA0268406E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
